--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>问题说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>按要求，图片存储路径参考附件:原系统保存路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高分和最低分显示问题(最低分大于0时不显示)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -799,9 +807,15 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="10"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43404</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:5">

--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>问题说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,14 +84,31 @@
   </si>
   <si>
     <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售顾问打分方式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.销售顾问打分GetShopNeedAnswerSubjectInfo添加了consultantid
+2.销售顾问打分的Json传值时，只传当前销售顾问的信息即可，不用像以前的方式所有销售顾问传过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系得分，销售顾问得分添加不涉及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选了不涉及之后，得分默认传9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,15 +394,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -459,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,6 +516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,23 +692,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1">
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -698,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -710,7 +734,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -722,7 +746,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -734,7 +758,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
@@ -746,7 +770,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
@@ -758,7 +782,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
@@ -770,7 +794,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -782,7 +806,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -794,7 +818,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -806,7 +830,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -818,175 +842,185 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="2:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43405</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="10"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="14.25" thickBot="1">
+    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
@@ -1000,12 +1034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,12 +1047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,7 +394,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,7 +481,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -516,7 +515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,23 +690,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="47.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -722,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -734,7 +732,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -746,7 +744,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -758,7 +756,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
@@ -770,7 +768,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
@@ -782,7 +780,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
@@ -794,7 +792,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -806,7 +804,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -818,7 +816,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -830,7 +828,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -842,7 +840,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="40.5">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -854,173 +852,175 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3">
+        <v>43406</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="10"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="10"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="B41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="14.25" thickBot="1">
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
@@ -1034,12 +1034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1047,12 +1047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">App!$B$3:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>问题说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,9 +50,6 @@
   <si>
     <t>按要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售顾问环节类型改成多选</t>
   </si>
   <si>
     <t>添加得分查询</t>
@@ -101,6 +101,46 @@
   </si>
   <si>
     <t>勾选了不涉及之后，得分默认传9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片添加是否不涉及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分照片在OSS和数据库里面保存的名称不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分查询的体系详细没有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片打分不涉及的时候，得分不能显示9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售顾问环节类型改成多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售顾问重新打分时seqno变成了0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分查询的得分还有空闲位置但是换行了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照的照片需要显示时间的水印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分查询到详细的时候，如果是照片题显示失分描述，检查标准，标准照片，如果是模拟题显示检查标准，销售顾问，如果是交叉题，显示所有=&gt;SubjectTypeCode=0 显示所有，=1显示失分描述，检查标准，标准照片，=2 显示检查标准，销售顾问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -329,11 +369,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +445,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -730,9 +785,9 @@
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" hidden="1">
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -742,11 +797,13 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" hidden="1">
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>43404</v>
@@ -754,11 +811,13 @@
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" hidden="1">
       <c r="B7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>43404</v>
@@ -766,11 +825,13 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" hidden="1">
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>43404</v>
@@ -778,11 +839,13 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>43404</v>
@@ -794,7 +857,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>43404</v>
@@ -804,9 +867,9 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" hidden="1">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>43404</v>
@@ -814,101 +877,141 @@
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" hidden="1">
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>43404</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" hidden="1">
+      <c r="B13" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>43404</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="40.5" hidden="1">
+      <c r="B14" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:5" ht="40.5">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>43405</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" hidden="1">
+      <c r="B15" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>43406</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3">
+        <v>43408</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43408</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43408</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43408</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="10"/>
+    <row r="20" spans="2:5" hidden="1">
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43408</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="2:5" ht="67.5">
+      <c r="B23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43408</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11"/>
     </row>
@@ -1027,6 +1130,11 @@
       <c r="E42" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:E23">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>问题说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,22 @@
   </si>
   <si>
     <t>得分查询到详细的时候，如果是照片题显示失分描述，检查标准，标准照片，如果是模拟题显示检查标准，销售顾问，如果是交叉题，显示所有=&gt;SubjectTypeCode=0 显示所有，=1显示失分描述，检查标准，标准照片，=2 显示检查标准，销售顾问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片没有上传到Survey系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分照片的预览图没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +765,7 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -945,7 +961,9 @@
         <v>43408</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="10" t="s">
@@ -965,7 +983,9 @@
         <v>43408</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="10" t="s">
@@ -1003,7 +1023,9 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="67.5">
       <c r="B23" s="10" t="s">
@@ -1013,16 +1035,22 @@
         <v>43408</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="11"/>

--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>问题说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得分查询的得分还有空闲位置但是换行了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拍照的照片需要显示时间的水印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,19 +148,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标准照片没有上传到Survey系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失分照片的预览图没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分查询的得分还有空闲位置但是换行了。得分查询的分数里面的“分"去掉，因为当3个得分都有的时候会换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,6 +551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -585,6 +586,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,24 +762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:E42"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1">
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -791,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -803,7 +805,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="2:5" hidden="1">
+    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -817,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:5" hidden="1">
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
@@ -831,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:5" hidden="1">
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
@@ -845,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:5" hidden="1">
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
@@ -859,7 +861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
@@ -871,7 +873,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
@@ -881,9 +883,11 @@
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:5" hidden="1">
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -897,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:5" hidden="1">
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
@@ -911,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:5" hidden="1">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -925,7 +929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="40.5" hidden="1">
+    <row r="14" spans="2:5" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -939,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" hidden="1">
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -953,7 +957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
@@ -962,10 +966,10 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -973,9 +977,11 @@
         <v>43408</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
@@ -984,10 +990,10 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -995,9 +1001,11 @@
         <v>43408</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" hidden="1">
+      <c r="E19" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
@@ -1007,9 +1015,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>43408</v>
@@ -1017,145 +1025,137 @@
       <c r="D21" s="5"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="67.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="72" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>43408</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="10"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:E23">
@@ -1170,12 +1170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,12 +1183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/系统修改内容.xlsx
+++ b/Doc/系统修改内容.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>问题说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>得分查询的得分还有空闲位置但是换行了。得分查询的分数里面的“分"去掉，因为当3个得分都有的时候会换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,7 +555,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -586,7 +589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,24 +764,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="47.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -793,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -805,7 +807,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" hidden="1">
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -819,7 +821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" hidden="1">
       <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
@@ -833,7 +835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" hidden="1">
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
@@ -847,7 +849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" hidden="1">
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
@@ -861,7 +863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
@@ -871,9 +873,11 @@
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
@@ -887,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" hidden="1">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -901,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" hidden="1">
       <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
@@ -915,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" hidden="1">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -929,7 +933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="40.5" hidden="1">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -943,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" hidden="1">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -957,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
@@ -969,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -981,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
@@ -993,7 +997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" hidden="1">
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="27">
       <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1029,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="67.5">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1047,111 +1051,113 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="2:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="14.25" thickBot="1">
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
@@ -1170,12 +1176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,12 +1189,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
